--- a/Case Tests Apis Mocks ComprasV2 (2).xlsx
+++ b/Case Tests Apis Mocks ComprasV2 (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebetancourt\Documents\GitHub\TestsApiComprasUsers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A88C0D93-A829-4EBA-8784-DB660AC9BC03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE8B44C-7F87-406F-B6EA-8A2B5F9F7548}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="167">
   <si>
     <t>ID</t>
   </si>
@@ -104,96 +104,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Informacion v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>alida de usuario
-(usuario, region, email)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Informacion vacia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de usuario
-(usuario, region, email)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Informacion invalida de usuario
-(usuario, region, email) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -345,9 +255,6 @@
     </r>
   </si>
   <si>
-    <t>Mensaje "Ese nombre de producto ya existe"</t>
-  </si>
-  <si>
     <t>Mostrar informacion  del producto</t>
   </si>
   <si>
@@ -657,45 +564,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Mostrar la infomación de todos los productos si existen
-(nombre, descripcion, precio,id)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Codigo Respuesta: 200"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Si no hay productos Mnsj "No existen productos registrados"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Codigo Respuesta: ???"</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Mostrar la infomacion (nombre, descripcion, precio,id)
  de un producto especifico.
 </t>
@@ -776,22 +644,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Mensaje "Producto no registrado"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Codigo Respuesta: "400"</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Mensaje "Producto no existente"
 </t>
     </r>
@@ -893,12 +745,6 @@
   </si>
   <si>
     <t>Crear purchase</t>
-  </si>
-  <si>
-    <t>Paso 2.1</t>
-  </si>
-  <si>
-    <t>Paso 2.2</t>
   </si>
   <si>
     <r>
@@ -1024,13 +870,6 @@
   </si>
   <si>
     <t>Mostrar informacion de profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paso 1.1 
-Paso 5.1
-Paso 9.1
-6.1.- Consultar profile
-</t>
   </si>
   <si>
     <t>Api UsuarioCompra
@@ -1136,13 +975,391 @@
       </rPr>
       <t>Codigo Respuesta: "400"</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mensaje "Producto no registrado"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Codigo Respuesta: "404"</t>
+    </r>
+  </si>
+  <si>
+    <t>* Con caracteres especiales muestra información
+* Con alfanúmericos muestra el mensaje que no existe el producto (Código Respuesta 404)
+* Con cualquier carcater incluyendo "/", "\", muestra un html y Código de respuesta 404 (500?)
+* Con cualquier carcater incluyendo "¡" no se conecta a la API</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mostrar la infomación de todos los productos si existen
+(nombre, descripcion, precio,id)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Codigo Respuesta: 200"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Si no hay productos Mnsj "No existen productos registrados"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Codigo Respuesta: 200"</t>
+    </r>
+  </si>
+  <si>
+    <t>* Si hay productos, muestra la información de todos los  Productos ("Codigo Respuesta: 200")
+* Si no hay productos muestra un areglo vacio [ ]  ("Codigo Respuesta: 200")</t>
+  </si>
+  <si>
+    <t>* Si falta algún campo en específico lo modifica a NULL (Código de respuesta: "202")
+* Si los campos van vacios, modifica la información a vacío (Código de respuesta: "202")
+* Si en el campo precio se le envía información incorrecta la modifica a Cero (Código de respuesta: "202")</t>
+  </si>
+  <si>
+    <t>* Si el Id es valido y los campos van vacios, modifica la información a vacío (Código de respuesta: "202")</t>
+  </si>
+  <si>
+    <t>* Mensaje: "El producto a eliminar no existe" 
+Código de respuesta: 404
+* Cuando se le envia un Id vacio responde un html Código de respuesta 405</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>Dato 6.2   y  Dato 5.1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mensaje "El producto a modificar no existe"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Codigo Respuesta: "404"</t>
+    </r>
+  </si>
+  <si>
+    <t>* Cuando se le ingresa un Id valido lo elimina, pero no muestra el mensaje, "Código de respuesta 204"</t>
+  </si>
+  <si>
+    <t>* Muestra la información del Producto específico</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Mensaje "El producto a modificar no existe"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Codigo Respuesta: "404"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+* Cuando el Id es vacio, responde html (Código de respuesta: "405")</t>
+    </r>
+  </si>
+  <si>
+    <t>* No muestra mensaje de creación exitosa  (responde el Body) Codigo Respuesta: "201"
+* Si se envia la misma información de los parametros requeridos, la duplica cambiando el ID</t>
+  </si>
+  <si>
+    <t>* Si no se le pasa ningún parametro, no muestra mensaje, respondiendo la información de todos los productos existentes</t>
+  </si>
+  <si>
+    <t>* Cuando se le envia información invalida la crea, Código de respuesta 201
+* Si se le envia información vacia, crea un producto con información null</t>
+  </si>
+  <si>
+    <t>Mensaje "Ese nombre del producto ya existe"</t>
+  </si>
+  <si>
+    <t>* Si se le envia información de un producto existente  duplica el registro cambiando el ID</t>
+  </si>
+  <si>
+    <t>Integridad de Datos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Información v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alida de usuario
+(usuario, region, email)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Información vacia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de usuario
+(usuario, region, email)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Información invalida de usuario
+(usuario, region, email) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Paso 1.1 
+Paso 5.1
+Paso 9.1
+13.1.- Consultar profile
+</t>
+  </si>
+  <si>
+    <t>Paso 6.1 
+12.1.- Eliminar producto</t>
+  </si>
+  <si>
+    <t>Validar la integridad del Usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paso 2.1
+</t>
+  </si>
+  <si>
+    <t>Dato 2.1</t>
+  </si>
+  <si>
+    <t>Validar la integridad del Producto</t>
+  </si>
+  <si>
+    <t>Paso 6.1</t>
+  </si>
+  <si>
+    <t>Dato 6.1</t>
+  </si>
+  <si>
+    <t>Validar la integridad del Purchase</t>
+  </si>
+  <si>
+    <t>Paso 10.1</t>
+  </si>
+  <si>
+    <t>Que exista usuarios registrados</t>
+  </si>
+  <si>
+    <t>Que exista productos registrados</t>
+  </si>
+  <si>
+    <t>Que exista Compras registradas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Modifica toda la información siempre y cuando se ingrese todos los campos requeridos (Código de respuesta: "202")
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ok</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Fail</t>
+    </r>
+  </si>
+  <si>
+    <t>Que el tipo de dato del profile sea la correspondiente { "userid": alfanumerico, "username": String, "region": String, "email": string@dominio.com",
+  "productname": ["string"]}</t>
+  </si>
+  <si>
+    <t>Paso 13.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que exista usuario, 
+Que exista producto y 
+Que exista un purchase
+</t>
+  </si>
+  <si>
+    <t>Que exista usuario, 
+Que exista producto y 
+Que exista un purchase</t>
+  </si>
+  <si>
+    <t>Datos 2.1</t>
+  </si>
+  <si>
+    <t>Datos 2.2</t>
+  </si>
+  <si>
+    <t>Datos 2.1 y Datos 6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datos 2.1  -  Datos 6.1 </t>
+  </si>
+  <si>
+    <t>Validar la integrida del Profile</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Que el tipo de dato de los Usuarios sea el correspondiente
+{ "id": alfanumerico, "username": String,   "region": String,   "email": "String@dominio.com"}</t>
+  </si>
+  <si>
+    <t>Formato de Respuesta</t>
+  </si>
+  <si>
+    <t>URL de cada API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Que el tipo de respuesta sea: Json</t>
+  </si>
+  <si>
+    <t>Validar de respuesta de todas las API  {Usuario, Producto, Purchase, profile}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hacer petición GET de cada API para mostrar el contenido de cada una
+</t>
+  </si>
+  <si>
+    <t>Que el tipo de dato de los Productos sea el correspondiente
+{ "id": alfanumerico,  "productname": string,   "descripcion": string,  "precio": float}</t>
+  </si>
+  <si>
+    <t>Que el tipo de dato de la Compra sea el correspondiente 
+{"id": alfanumerico, "username": String,   "productname": String,   "precio": Float,   "fecha": dd/mm/aaaa}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1322,6 +1539,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1550,7 +1774,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1718,7 +1942,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -1727,7 +1951,7 @@
       <top style="thick">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1739,98 +1963,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1896,19 +2032,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1943,6 +2066,293 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1993,7 +2403,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2020,12 +2430,6 @@
     <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2033,9 +2437,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2045,65 +2446,41 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2117,182 +2494,283 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2657,10 +3135,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2671,7 +3151,7 @@
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="30.140625" customWidth="1"/>
     <col min="6" max="6" width="38.28515625" customWidth="1"/>
-    <col min="7" max="7" width="63.85546875" customWidth="1"/>
+    <col min="7" max="7" width="65.140625" customWidth="1"/>
     <col min="8" max="8" width="47.5703125" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
     <col min="10" max="10" width="24.140625" customWidth="1"/>
@@ -2679,890 +3159,1029 @@
     <col min="12" max="12" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="105" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="46.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="106">
+        <v>1</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="63"/>
+      <c r="I2" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="97" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="107"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="64"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="98"/>
+    </row>
+    <row r="4" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="107"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="64"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="98"/>
+    </row>
+    <row r="5" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="107"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="64"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="98"/>
+    </row>
+    <row r="6" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="107">
+        <v>2</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="93" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="46.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84">
-        <v>1</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="100"/>
-    </row>
-    <row r="3" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="D6" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="101"/>
-    </row>
-    <row r="4" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="101"/>
-    </row>
-    <row r="5" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="101"/>
-    </row>
-    <row r="6" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77">
-        <v>2</v>
-      </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="79" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="60"/>
       <c r="I6" s="4"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="101"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="98"/>
     </row>
     <row r="7" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="14"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="60"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="101"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="98"/>
     </row>
     <row r="8" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="14"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="60"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="101"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="98"/>
     </row>
     <row r="9" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="77">
+      <c r="A9" s="107">
         <v>3</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="86" t="s">
+      <c r="B9" s="81"/>
+      <c r="C9" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="64" t="s">
         <v>48</v>
-      </c>
-      <c r="D9" s="86" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="101"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="98"/>
     </row>
     <row r="10" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>53</v>
+      <c r="A10" s="107"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>49</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="101"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="98"/>
     </row>
     <row r="11" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="10" t="s">
-        <v>26</v>
+      <c r="A11" s="107"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="64" t="s">
+        <v>23</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="101"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="98"/>
     </row>
     <row r="12" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77">
+      <c r="A12" s="107">
         <v>4</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="79" t="s">
+      <c r="B12" s="81"/>
+      <c r="C12" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="D12" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="17"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="101"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="98"/>
     </row>
     <row r="13" spans="1:12" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="25" t="s">
+      <c r="A13" s="108"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="98"/>
+    </row>
+    <row r="14" spans="1:12" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="106">
+        <v>5</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="101"/>
-    </row>
-    <row r="14" spans="1:12" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="84">
-        <v>5</v>
-      </c>
-      <c r="B14" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="85" t="s">
+      <c r="H14" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="98"/>
+    </row>
+    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="107"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="29" t="s">
+      <c r="H15" s="100" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="98"/>
+    </row>
+    <row r="16" spans="1:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="107"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="H16" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="98"/>
+    </row>
+    <row r="17" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="107"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="100" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="98"/>
+    </row>
+    <row r="18" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="107">
+        <v>6</v>
+      </c>
+      <c r="B18" s="81"/>
+      <c r="C18" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="101"/>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="D18" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="101"/>
-    </row>
-    <row r="16" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="101"/>
-    </row>
-    <row r="17" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="101"/>
-    </row>
-    <row r="18" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="77">
-        <v>6</v>
-      </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="89" t="s">
-        <v>40</v>
-      </c>
       <c r="E18" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="101"/>
+        <v>63</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="98"/>
     </row>
     <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="77"/>
-      <c r="B19" s="82"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="87"/>
       <c r="D19" s="91"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="101"/>
-    </row>
-    <row r="20" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
-      <c r="B20" s="82"/>
+      <c r="F19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="98"/>
+    </row>
+    <row r="20" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="107"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="87"/>
       <c r="D20" s="92"/>
       <c r="E20" s="87"/>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="98"/>
+    </row>
+    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="107">
+        <v>7</v>
+      </c>
+      <c r="B21" s="81"/>
+      <c r="C21" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="101"/>
-    </row>
-    <row r="21" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77">
-        <v>7</v>
-      </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="86" t="s">
+      <c r="G21" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I21" s="132" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" s="24"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="98"/>
+    </row>
+    <row r="22" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="107"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="98"/>
+    </row>
+    <row r="23" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="107"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="98"/>
+    </row>
+    <row r="24" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="107"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" s="24"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="98"/>
+    </row>
+    <row r="25" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="107">
+        <v>8</v>
+      </c>
+      <c r="B25" s="81"/>
+      <c r="C25" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="98"/>
+    </row>
+    <row r="26" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="108"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="98"/>
+    </row>
+    <row r="27" spans="1:12" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="106">
+        <v>9</v>
+      </c>
+      <c r="B27" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="63"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="98"/>
+    </row>
+    <row r="28" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="109"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="101"/>
-    </row>
-    <row r="22" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="101"/>
-    </row>
-    <row r="23" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="101"/>
-    </row>
-    <row r="24" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77">
-        <v>8</v>
-      </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="87" t="s">
+      <c r="H28" s="69"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="98"/>
+    </row>
+    <row r="29" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="109"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="69"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="98"/>
+    </row>
+    <row r="30" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="107"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="64"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="98"/>
+    </row>
+    <row r="31" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="107">
         <v>10</v>
       </c>
-      <c r="D24" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="101"/>
-    </row>
-    <row r="25" spans="1:12" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="78"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="36"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="101"/>
-    </row>
-    <row r="26" spans="1:12" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="84">
-        <v>9</v>
-      </c>
-      <c r="B26" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="101"/>
-    </row>
-    <row r="27" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="104"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="10" t="s">
+      <c r="B31" s="81"/>
+      <c r="C31" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="45"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="101"/>
-    </row>
-    <row r="28" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="104"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="47" t="s">
+      <c r="E31" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G31" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H28" s="45"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="101"/>
-    </row>
-    <row r="29" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="47" t="s">
+      <c r="H31" s="72"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="98"/>
+    </row>
+    <row r="32" spans="1:12" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="107"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="72"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="98"/>
+    </row>
+    <row r="33" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="107"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="72"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="98"/>
+    </row>
+    <row r="34" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="107">
+        <v>11</v>
+      </c>
+      <c r="B34" s="81"/>
+      <c r="C34" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="101"/>
-    </row>
-    <row r="30" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="77">
-        <v>10</v>
-      </c>
-      <c r="B30" s="82"/>
-      <c r="C30" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="18" t="s">
+      <c r="E34" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="98"/>
+    </row>
+    <row r="35" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="107"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="64" t="s">
         <v>102</v>
-      </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="101"/>
-    </row>
-    <row r="31" spans="1:12" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="101"/>
-    </row>
-    <row r="32" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="101"/>
-    </row>
-    <row r="33" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="77">
-        <v>11</v>
-      </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="93" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="101"/>
-    </row>
-    <row r="34" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="101"/>
-    </row>
-    <row r="35" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="77"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="101"/>
-    </row>
-    <row r="36" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="77">
+      <c r="J35" s="24"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="98"/>
+    </row>
+    <row r="36" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="107"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="98"/>
+    </row>
+    <row r="37" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="107">
         <v>12</v>
       </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="96" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="G36" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="H36" s="67"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="101"/>
-    </row>
-    <row r="37" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="78"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="G37" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="H37" s="73"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="101"/>
-    </row>
-    <row r="38" spans="1:12" ht="69.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="84">
+      <c r="B37" s="81"/>
+      <c r="C37" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="H37" s="70"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="98"/>
+    </row>
+    <row r="38" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="108"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="H38" s="56"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="98"/>
+    </row>
+    <row r="39" spans="1:12" ht="69.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="106">
         <v>13</v>
       </c>
-      <c r="B38" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="85" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="85" t="s">
+      <c r="B39" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="H38" s="29"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="101"/>
-    </row>
-    <row r="39" spans="1:12" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="78"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
+      <c r="C39" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="79" t="s">
+        <v>134</v>
+      </c>
       <c r="F39" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="37"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="102"/>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>153</v>
+      </c>
+      <c r="G39" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" s="63"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="98"/>
+    </row>
+    <row r="40" spans="1:12" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="110"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="67"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="112"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="98"/>
+    </row>
+    <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="120">
+        <v>14</v>
+      </c>
+      <c r="B41" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="122" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="122" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="122" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="122" t="s">
+        <v>159</v>
+      </c>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="123"/>
+      <c r="K41" s="130"/>
+      <c r="L41" s="98"/>
+    </row>
+    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="124"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="98"/>
+    </row>
+    <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="124"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="G43" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="131"/>
+      <c r="L43" s="98"/>
+    </row>
+    <row r="44" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="125"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="128" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" s="128" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="127" t="s">
+        <v>155</v>
+      </c>
+      <c r="G44" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="H44" s="129"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="129"/>
+      <c r="K44" s="134"/>
+      <c r="L44" s="98"/>
+    </row>
+    <row r="45" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="117">
+        <v>14</v>
+      </c>
+      <c r="B45" s="116" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="118" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" s="118" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="F45" s="118" t="s">
+        <v>161</v>
+      </c>
+      <c r="G45" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="H45" s="115"/>
+      <c r="I45" s="115"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="99"/>
+    </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="L2:L39"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="C21:C23"/>
+  <mergeCells count="59">
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="L2:L45"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:C13"/>
@@ -3579,6 +4198,46 @@
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B26"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B38"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="A31:A33"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967295" r:id="rId1"/>
